--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -9,26 +9,446 @@
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>GULAM GOS HABIB SHAIKH</t>
-  </si>
-  <si>
-    <t>HABIBA AFZAL ANSARI</t>
-  </si>
-  <si>
-    <t>INAAYA MOINUDDIN LUHAR</t>
-  </si>
-  <si>
-    <t>HABIBA SHOYAB TAMBOLI</t>
+    <t>UBAIDULLAH ZAMEER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABUZAR ASHRUFALI KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ADNAN SUFIYAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AUAN MOINUDDIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HABIBA SHOYAB TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FURQAN SUFIYAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIZWAN JAHIR TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAQI SAMEER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SHOYAB TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AHMAD SHOYAB TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IQRA SHAKIL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SARA NADIR BAIG_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZOHEB ILIYAS PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YUSUF A.MATIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUHIB NAVEED SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARMAAN VAHIDURREHMAN CHAUDHARY_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AREEB SIDDIQ SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUZAMMIL ASIF MANTAGE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>DANISH IRFAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TALHA MUKHTAR SAIFI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN AKHATAR MIRAJAKAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>DAFIQ SOHEL PEERZADE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUR REHMAN IDRIS PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL REHMAN ZAMEER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NAYEB MUBIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALIZA FAISAL SIDDIQI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BUSHRA WASIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BIBI AAISHA IDRIS PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAYAT RIZWAN SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAID ZAHIR TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AREEBSHAH IMRANSHAH JAMADAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMMAR HARUN JAFAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUZAIL SIDDIQ SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BILAL ANIS SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMER ASLAM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NOOH SHAMSHUDDIN HAMDULE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAKIR AYYUB SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDULLAH ABDUL LATIF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIDA IBARAHIM AZIZ_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZOYA RIZWAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>anam shamshuddin khan_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFSHEEN MOHSIN KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>pashmina  MUBIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALINA IMRAN KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FAIZAL IRFAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUIZ AYAZ PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MASEERA MOINUDDIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR FAROOQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NABEEL FAROOQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FURQAN ZAHIR ABBAS KOLAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN IRFAN CHAUDHARY_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ISHAN IRFAN CHAUDHARY_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SEBAN MATIN MOKASHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAHERA REHMAN CHAUDHARY_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SWALIHA RAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA AKBAR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZMA IBRAHIM ARLIKATTI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAM ASLAMSHAH INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HALIMA IRFAN MIRAJKAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SWALIHA ISHTIYAQ PEERZADE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BUSHRA MUSHTAQ PEERZADE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARYAM ASHRUFALI KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHEZA SADIQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MISBAH FEROZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AADIL ALI KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MEHMOOD SHOYAB TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAIN VAZIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUDDASSIR ASIF MANTAGE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SARFARAZ FEROZ PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN IBRAHIM AZIZ_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AHAD ARIFMOHAMMAD TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAID RIZWAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALIM SALIM SHAKIH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASAD SALIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAHER IRSHAD SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>REEDA SHABBIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NAZIYA ALIM QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFSHEEN MASOOM IDRISI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARYAM REHAN KAZI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUMAIRA WAHID KHISTAKE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDULLAH MEHMOOD HAMDULE _MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FARHAN IMRAN BIJAPURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZIYAN IMRAN BIJAPURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAN NOOR MOHAMMAD CHAUDHARY_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JUNED AYYUB SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMINA ISHAQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HADI AZHAR KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AWAAN WASIM MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IFFAT IMRAN MONIN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASHMIRA MUKHTAR SAIFI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FARZAN ZAHIR ABBAS KOLAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AARIZ NADIM ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AALIYA AKHTAR MIRAJKR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FAZEEN MOHSIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAMTA SAMEER PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAISHA SARFARAZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MIMSHA SADIQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASHMIRA AMJAD PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MANTASH AKBAR SHAKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZAIR MOHSIN PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUAAZ ISHTIYAQ PEERZADE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARZAN FAUSAL SIDDIQI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AHIL AZRUDDIN PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIDAN IRFAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARSHAD MUBIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AHMAD ALI KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARKAN AFTAB KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALFIYA RAJU PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAYA SHAMSHUDDIN KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAKSIN SAMEER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZMA GOS NASHIPUDI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOIN GOS NASHIPUDI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SUHANA SHERKHAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALIZA ALIMKH PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUZAIF SHABBIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>afak mohsin khan_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZAIR ZUBER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIFA ABRAR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIMAN JAFAR DAREBHAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HIDAYAT ALI IBRAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL AHAD IRFAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIDA AYYUB SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZUNAIRA SAMEER SAIFEE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAN AZHAR KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HARIS IMRAN KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAHIMIN ALIM QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZMA ISHAQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ZAMEER SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIRAT SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARYAM MOHSIN SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MEHREEN MOHSIN SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUSTAKEEM IQBAL SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAQDIS MOHSIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HAMMAD MAZHAR MAGDUM_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAYRA SALMAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAHIN MUBIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIMAN AMIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZUHERA MUSTAKIM DHALAIT_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALIZA TAUSIF AHMAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HANIYA HUSAIN KADRI SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NOOORIN SAMEER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIDDIQA ASLAM PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YASEER MUNUR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFFAN QAMRUDDIN GAZI_MarkSheet_ency</t>
   </si>
 </sst>
 </file>
@@ -58,11 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -209,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +642,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,12 +840,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,7 +851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -430,6 +872,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -533,19 +986,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,7 +1007,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,125 +1019,141 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -738,6 +1207,30 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1005,15 +1498,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="46.8380952380952" customWidth="1"/>
+    <col min="3" max="3" width="47.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1021,27 +1515,1981 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" ht="15.75" spans="1:4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="11"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" ht="15.75" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="12"/>
+    </row>
+    <row r="146" ht="15.75" spans="4:4">
+      <c r="D146" s="12"/>
+    </row>
+    <row r="147" ht="15.75" spans="4:4">
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" ht="15.75" spans="4:4">
+      <c r="D148" s="12"/>
+    </row>
+    <row r="149" ht="15.75" spans="4:4">
+      <c r="D149" s="12"/>
+    </row>
+    <row r="150" ht="15.75" spans="4:4">
+      <c r="D150" s="12"/>
+    </row>
+    <row r="151" ht="15.75" spans="4:4">
+      <c r="D151" s="12"/>
+    </row>
+    <row r="152" ht="15.75" spans="4:4">
+      <c r="D152" s="12"/>
+    </row>
+    <row r="153" ht="15.75" spans="4:4">
+      <c r="D153" s="12"/>
+    </row>
+    <row r="154" ht="15.75" spans="4:4">
+      <c r="D154" s="12"/>
+    </row>
+    <row r="155" ht="15.75" spans="4:4">
+      <c r="D155" s="12"/>
+    </row>
+    <row r="156" ht="15.75" spans="4:4">
+      <c r="D156" s="12"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1940"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="duplicateValues" dxfId="0" priority="1189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="duplicateValues" dxfId="0" priority="1188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="duplicateValues" dxfId="0" priority="1127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="duplicateValues" dxfId="0" priority="662"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="duplicateValues" dxfId="0" priority="661"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="duplicateValues" dxfId="0" priority="602"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="601"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C125&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="85">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C125&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="84">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C135&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="83">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C136&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="82">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C136&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="25">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="23">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="21">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="17">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C136&amp;$H125))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C136&amp;$H125))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C135&amp;$H125))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D136">
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D137">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D138">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D139">
+    <cfRule type="expression" dxfId="1" priority="91">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$D83))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$D83))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="89">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$D83))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="88">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C136&amp;$D83))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="87">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C136&amp;$D83))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="77">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="76">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="75">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="73">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="72">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="71">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="70">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="69">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="67">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="66">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="65">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$H136))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="64">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$H136))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="61">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="60">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$H136))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="35">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$H137))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$H137))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="33">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$E137))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$H137))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="31">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$E137))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$E137))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D140">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D145">
+    <cfRule type="expression" dxfId="1" priority="81">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C146&amp;$D88))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D88))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C147&amp;$D88))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="53">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="52">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="51">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="49">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="45">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="43">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C147&amp;$H142))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="41">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$H142))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="40">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="39">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C146&amp;$H142))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="37">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C142&amp;$D88))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="36">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C142&amp;$D88))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="expression" dxfId="1" priority="113">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D89))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="112">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D89))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="111">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$D89))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="109">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="108">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="107">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="105">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="103">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="102">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="101">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="100">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="99">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$H143))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="97">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$H143))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="96">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="95">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="94">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$H143))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="93">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C143&amp;$D89))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C143&amp;$D89))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147">
+    <cfRule type="expression" dxfId="1" priority="135">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D90))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$D90))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="133">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C149&amp;$D90))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="132">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="131">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="130">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="129">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="127">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="126">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="125">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="124">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="123">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="121">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="120">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C149&amp;$H144))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="119">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$H144))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="118">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="117">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$H144))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="115">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C144&amp;$D90))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="114">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C144&amp;$D90))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="expression" dxfId="1" priority="157">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$D91))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="156">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$D91))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="155">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C150&amp;$D91))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="154">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="153">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="151">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="150">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="149">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="148">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="147">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="145">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="144">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="143">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="142">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C150&amp;$H145))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="141">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$H145))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="140">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="139">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="138">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$H145))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="137">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C145&amp;$D91))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="136">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C145&amp;$D91))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="expression" dxfId="1" priority="179">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$D92))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="178">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$D92))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="177">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C151&amp;$D92))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="176">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="175">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="174">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="173">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="172">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="171">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="169">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="168">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="167">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="166">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="165">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="164">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C151&amp;$H146))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="163">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$H146))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="162">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="161">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="160">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$H146))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="159">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C146&amp;$D92))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C146&amp;$D92))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D150">
+    <cfRule type="expression" dxfId="1" priority="201">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$D93))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$D93))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="199">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C152&amp;$D93))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="198">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="197">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="196">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="195">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="194">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="193">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="192">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="191">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="190">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="189">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="187">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="186">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C152&amp;$H147))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="185">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$H147))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="184">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="183">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$H147))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="181">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C147&amp;$D93))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="180">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D93))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D151">
+    <cfRule type="expression" dxfId="1" priority="223">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$D94))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="222">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D94))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="221">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$D94))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="220">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="219">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="217">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="216">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="215">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="214">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="213">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="212">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="211">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="210">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="209">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="208">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$H148))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="207">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$H148))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="206">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="205">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="204">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$H148))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="203">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$D94))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="202">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D94))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
+    <cfRule type="expression" dxfId="1" priority="245">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="244">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$D95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="243">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C154&amp;$D95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="242">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="241">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="240">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="239">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="238">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="237">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="235">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="234">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="233">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="232">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="231">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C154&amp;$H149))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="229">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$H149))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="228">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="227">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="226">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$H149))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="225">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C149&amp;$D95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="224">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$D95))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="expression" dxfId="1" priority="267">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$D96))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="266">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$D96))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="265">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C155&amp;$D96))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="264">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="263">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="262">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="261">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="260">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="259">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="258">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="257">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="256">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="255">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="254">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="253">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="252">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C155&amp;$H150))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="251">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$H150))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="250">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="249">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="248">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$H150))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="247">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C150&amp;$D96))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="246">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$D96))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154">
+    <cfRule type="expression" dxfId="1" priority="289">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$D97))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="288">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$D97))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="287">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C156&amp;$D97))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="286">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="285">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="284">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="283">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="282">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="281">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="280">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="279">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="278">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="277">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="276">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="275">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="274">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C156&amp;$H151))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="273">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$H151))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="272">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="271">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="270">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$H151))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="269">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C151&amp;$D97))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="268">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$D97))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
+    <cfRule type="expression" dxfId="1" priority="311">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$D98))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="310">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$D98))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="309">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C157&amp;$D98))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="308">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="307">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="306">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="305">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="304">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="303">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="302">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="301">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="300">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="299">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="298">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="297">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="296">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C157&amp;$H152))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="295">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$H152))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="294">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="293">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="292">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$H152))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="291">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C152&amp;$D98))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="290">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$D98))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D156">
+    <cfRule type="expression" dxfId="1" priority="2032">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2031">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2030">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1997">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1996">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1995">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1994">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1993">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1992">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1991">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1990">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1989">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1988">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1987">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1986">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1985">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$H153))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1984">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$H153))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1983">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1982">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1981">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$H153))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1980">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1979">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D99))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D16">
+    <cfRule type="duplicateValues" dxfId="0" priority="1842"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1718"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1659"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1572"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D51">
+    <cfRule type="duplicateValues" dxfId="0" priority="1361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D66">
+    <cfRule type="duplicateValues" dxfId="0" priority="1128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:D93">
+    <cfRule type="duplicateValues" dxfId="0" priority="876"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:D93">
+    <cfRule type="duplicateValues" dxfId="0" priority="930"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112:D132">
+    <cfRule type="duplicateValues" dxfId="0" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126:D156">
+    <cfRule type="duplicateValues" dxfId="0" priority="2028"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2013"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133:D139">
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133:D137">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133:D138">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141:D156">
+    <cfRule type="duplicateValues" dxfId="0" priority="2008"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4 D6:D11 D108:D156">
+    <cfRule type="duplicateValues" dxfId="0" priority="1945"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D63 D65:D66">
+    <cfRule type="duplicateValues" dxfId="0" priority="1190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94:D105 D107:D111">
+    <cfRule type="duplicateValues" dxfId="0" priority="683"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94:D105 D107:D111">
+    <cfRule type="duplicateValues" dxfId="0" priority="604"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -19,436 +19,436 @@
     <t>Names</t>
   </si>
   <si>
-    <t>UBAIDULLAH ZAMEER SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ABUZAR ASHRUFALI KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ADNAN SUFIYAN TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AUAN MOINUDDIN TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HABIBA SHOYAB TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>FURQAN SUFIYAN TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>RIZWAN JAHIR TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>TAQI SAMEER SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MOHAMMAD SHOYAB TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AHMAD SHOYAB TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>IQRA SHAKIL SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SARA NADIR BAIG_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZOHEB ILIYAS PATHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>YUSUF A.MATIN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MUHIB NAVEED SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ARMAAN VAHIDURREHMAN CHAUDHARY_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AREEB SIDDIQ SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MUZAMMIL ASIF MANTAGE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>DANISH IRFAN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>TALHA MUKHTAR SAIFI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AYAN AKHATAR MIRAJAKAR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>DAFIQ SOHEL PEERZADE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ABDUR REHMAN IDRIS PATEL_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ABDUL REHMAN ZAMEER SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>NAYEB MUBIN TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ALIZA FAISAL SIDDIQI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>BUSHRA WASIM SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>BIBI AAISHA IDRIS PATEL_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AAYAT RIZWAN SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZAID ZAHIR TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AREEBSHAH IMRANSHAH JAMADAR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AMMAR HARUN JAFAR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HUZAIL SIDDIQ SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>BILAL ANIS SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>UMER ASLAM SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>NOOH SHAMSHUDDIN HAMDULE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SHAKIR AYYUB SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ABDULLAH ABDUL LATIF SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>RIDA IBARAHIM AZIZ_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZOYA RIZWAN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>anam shamshuddin khan_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AFSHEEN MOHSIN KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>pashmina  MUBIN TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ALINA IMRAN KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>FAIZAL IRFAN TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MUIZ AYAZ PATEL_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MASEERA MOINUDDIN TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>UMAR FAROOQ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>NABEEL FAROOQ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>FURQAN ZAHIR ABBAS KOLAR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AYAN IRFAN CHAUDHARY_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ISHAN IRFAN CHAUDHARY_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SEBAN MATIN MOKASHI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MAHERA REHMAN CHAUDHARY_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SWALIHA RAHIM SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>FATIMA AKBAR SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>UZMA IBRAHIM ARLIKATTI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ANAM ASLAMSHAH INAMDAR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HALIMA IRFAN MIRAJKAR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SWALIHA ISHTIYAQ PEERZADE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>BUSHRA MUSHTAQ PEERZADE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MARYAM ASHRUFALI KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SHEZA SADIQ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MISBAH FEROZ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AADIL ALI KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MEHMOOD SHOYAB TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZAIN VAZIR SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MUDDASSIR ASIF MANTAGE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SARFARAZ FEROZ PATHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AYAN IBRAHIM AZIZ_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AHAD ARIFMOHAMMAD TAMBOLI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZAID RIZWAN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ALIM SALIM SHAKIH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ASAD SALIM SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SAHER IRSHAD SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>REEDA SHABBIR SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>NAZIYA ALIM QURESHI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AFSHEEN MASOOM IDRISI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MARYAM REHAN KAZI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HUMAIRA WAHID KHISTAKE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ABDULLAH MEHMOOD HAMDULE _MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>FARHAN IMRAN BIJAPURE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZIYAN IMRAN BIJAPURE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ARHAN NOOR MOHAMMAD CHAUDHARY_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>JUNED AYYUB SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AMINA ISHAQ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HADI AZHAR KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AWAAN WASIM MULLA_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>IFFAT IMRAN MONIN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ASHMIRA MUKHTAR SAIFI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>FARZAN ZAHIR ABBAS KOLAR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AARIZ NADIM ANSARI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AALIYA AKHTAR MIRAJKR_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>FAZEEN MOHSIN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ANAMTA SAMEER PATEL_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AAISHA SARFARAZ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MIMSHA SADIQ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ASHMIRA AMJAD PATHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MANTASH AKBAR SHAKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>UZAIR MOHSIN PATHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MUAAZ ISHTIYAQ PEERZADE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ARZAN FAUSAL SIDDIQI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AHIL AZRUDDIN PATEL_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>RIDAN IRFAN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ARSHAD MUBIN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AHMAD ALI KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ARKAN AFTAB KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ALFIYA RAJU PATHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ANAYA SHAMSHUDDIN KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>TAKSIN SAMEER SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>UZMA GOS NASHIPUDI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MOIN GOS NASHIPUDI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SUHANA SHERKHAN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ALIZA ALIMKH PATHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MUZAIF SHABBIR SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>afak mohsin khan_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>UZAIR ZUBER SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AFIFA ABRAR SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AAIMAN JAFAR DAREBHAI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HIDAYAT ALI IBRAHIM SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ABDUL AHAD IRFAN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>RIDA AYYUB SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZUNAIRA SAMEER SAIFEE_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ARHAN AZHAR KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HARIS IMRAN KHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>RAHIMIN ALIM QURESHI_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>UZMA ISHAQ SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MOHAMMAD ZAMEER SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SIRAT SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MARYAM MOHSIN SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MEHREEN MOHSIN SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MUSTAKEEM IQBAL SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>TAQDIS MOHSIN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HAMMAD MAZHAR MAGDUM_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MAYRA SALMAN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>MAHIN MUBIN SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AAIMAN AMIR SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ZUHERA MUSTAKIM DHALAIT_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>ALIZA TAUSIF AHMAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>HANIYA HUSAIN KADRI SAYYAD_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>NOOORIN SAMEER SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>SIDDIQA ASLAM PATHAN_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>YASEER MUNUR SHAIKH_MarkSheet_ency</t>
-  </si>
-  <si>
-    <t>AFFAN QAMRUDDIN GAZI_MarkSheet_ency</t>
+    <t>UBAIDULLAH ZAMEER SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ABUZAR ASHRUFALI KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ADNAN SUFIYAN TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AUAN MOINUDDIN TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HABIBA SHOYAB TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>FURQAN SUFIYAN TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>RIZWAN JAHIR TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>TAQI SAMEER SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SHOYAB TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AHMAD SHOYAB TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>IQRA SHAKIL SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SARA NADIR BAIG_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZOHEB ILIYAS PATHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>YUSUF A.MATIN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MUHIB NAVEED SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ARMAAN VAHIDURREHMAN CHAUDHARY_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AREEB SIDDIQ SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MUZAMMIL ASIF MANTAGE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>DANISH IRFAN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>TALHA MUKHTAR SAIFI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AYAN AKHATAR MIRAJAKAR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>DAFIQ SOHEL PEERZADE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ABDUR REHMAN IDRIS PATEL_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ABDUL REHMAN ZAMEER SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>NAYEB MUBIN TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ALIZA FAISAL SIDDIQI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>BUSHRA WASIM SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>BIBI AAISHA IDRIS PATEL_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AAYAT RIZWAN SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZAID ZAHIR TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AREEBSHAH IMRANSHAH JAMADAR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AMMAR HARUN JAFAR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HUZAIL SIDDIQ SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>BILAL ANIS SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>UMER ASLAM SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>NOOH SHAMSHUDDIN HAMDULE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SHAKIR AYYUB SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ABDULLAH ABDUL LATIF SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>RIDA IBARAHIM AZIZ_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZOYA RIZWAN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>anam shamshuddin khan_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AFSHEEN MOHSIN KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>pashmina  MUBIN TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ALINA IMRAN KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>FAIZAL IRFAN TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MUIZ AYAZ PATEL_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MASEERA MOINUDDIN TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>UMAR FAROOQ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>NABEEL FAROOQ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>FURQAN ZAHIR ABBAS KOLAR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AYAN IRFAN CHAUDHARY_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ISHAN IRFAN CHAUDHARY_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SEBAN MATIN MOKASHI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MAHERA REHMAN CHAUDHARY_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SWALIHA RAHIM SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>FATIMA AKBAR SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>UZMA IBRAHIM ARLIKATTI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ANAM ASLAMSHAH INAMDAR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HALIMA IRFAN MIRAJKAR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SWALIHA ISHTIYAQ PEERZADE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>BUSHRA MUSHTAQ PEERZADE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MARYAM ASHRUFALI KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SHEZA SADIQ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MISBAH FEROZ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AADIL ALI KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MEHMOOD SHOYAB TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZAIN VAZIR SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MUDDASSIR ASIF MANTAGE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SARFARAZ FEROZ PATHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AYAN IBRAHIM AZIZ_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AHAD ARIFMOHAMMAD TAMBOLI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZAID RIZWAN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ALIM SALIM SHAKIH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ASAD SALIM SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SAHER IRSHAD SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>REEDA SHABBIR SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>NAZIYA ALIM QURESHI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AFSHEEN MASOOM IDRISI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MARYAM REHAN KAZI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HUMAIRA WAHID KHISTAKE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ABDULLAH MEHMOOD HAMDULE _MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>FARHAN IMRAN BIJAPURE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZIYAN IMRAN BIJAPURE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ARHAN NOOR MOHAMMAD CHAUDHARY_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>JUNED AYYUB SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AMINA ISHAQ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HADI AZHAR KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AWAAN WASIM MULLA_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>IFFAT IMRAN MONIN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ASHMIRA MUKHTAR SAIFI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>FARZAN ZAHIR ABBAS KOLAR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AARIZ NADIM ANSARI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AALIYA AKHTAR MIRAJKR_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>FAZEEN MOHSIN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ANAMTA SAMEER PATEL_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AAISHA SARFARAZ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MIMSHA SADIQ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ASHMIRA AMJAD PATHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MANTASH AKBAR SHAKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>UZAIR MOHSIN PATHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MUAAZ ISHTIYAQ PEERZADE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ARZAN FAUSAL SIDDIQI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AHIL AZRUDDIN PATEL_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>RIDAN IRFAN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ARSHAD MUBIN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AHMAD ALI KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ARKAN AFTAB KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ALFIYA RAJU PATHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ANAYA SHAMSHUDDIN KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>TAKSIN SAMEER SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>UZMA GOS NASHIPUDI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MOIN GOS NASHIPUDI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SUHANA SHERKHAN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ALIZA ALIMKH PATHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MUZAIF SHABBIR SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>afak mohsin khan_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>UZAIR ZUBER SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AFIFA ABRAR SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AAIMAN JAFAR DAREBHAI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HIDAYAT ALI IBRAHIM SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ABDUL AHAD IRFAN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>RIDA AYYUB SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZUNAIRA SAMEER SAIFEE_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ARHAN AZHAR KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HARIS IMRAN KHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>RAHIMIN ALIM QURESHI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>UZMA ISHAQ SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ZAMEER SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SIRAT SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MARYAM MOHSIN SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MEHREEN MOHSIN SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MUSTAKEEM IQBAL SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>TAQDIS MOHSIN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HAMMAD MAZHAR MAGDUM_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MAYRA SALMAN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>MAHIN MUBIN SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AAIMAN AMIR SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ZUHERA MUSTAKIM DHALAIT_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ALIZA TAUSIF AHMAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>HANIYA HUSAIN KADRI SAYYAD_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>NOOORIN SAMEER SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>SIDDIQA ASLAM PATHAN_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>YASEER MUNUR SHAIKH_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>AFFAN QAMRUDDIN GAZI_MarkSheet_ency.pdf</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,30 +648,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -851,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -872,17 +848,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1007,7 +972,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,43 +984,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,29 +1086,17 @@
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,16 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1210,16 +1165,6 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="1"/>
         <i val="0"/>
         <color theme="1"/>
@@ -1227,6 +1172,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1500,8 +1455,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1537,7 +1492,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -1603,7 +1558,7 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
@@ -1639,55 +1594,55 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
@@ -1819,91 +1774,91 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="8"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="9"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
@@ -1927,7 +1882,7 @@
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
@@ -1981,7 +1936,7 @@
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="5"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
@@ -2017,7 +1972,7 @@
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
@@ -2041,7 +1996,7 @@
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
@@ -2071,97 +2026,97 @@
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="D94" s="8"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="8"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="8"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="D100" s="8"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="8"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="D102" s="8"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="8"/>
+      <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="8"/>
+      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="10"/>
+      <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
@@ -2173,7 +2128,7 @@
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="D111" s="10"/>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
@@ -2305,1190 +2260,874 @@
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="D133" s="11"/>
-    </row>
-    <row r="134" ht="15.75" spans="1:4">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="12"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="D135" s="11"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="4"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="D137" s="8"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="8"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="8"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="4"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="8"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="D142" s="11"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="D143" s="11"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="D144" s="11"/>
-    </row>
-    <row r="145" ht="15.75" spans="1:4">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="D145" s="12"/>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" ht="15.75" spans="4:4">
-      <c r="D146" s="12"/>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" ht="15.75" spans="4:4">
-      <c r="D147" s="12"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" ht="15.75" spans="4:4">
-      <c r="D148" s="12"/>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" ht="15.75" spans="4:4">
-      <c r="D149" s="12"/>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" ht="15.75" spans="4:4">
-      <c r="D150" s="12"/>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" ht="15.75" spans="4:4">
-      <c r="D151" s="12"/>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" ht="15.75" spans="4:4">
-      <c r="D152" s="12"/>
+      <c r="D152" s="4"/>
     </row>
     <row r="153" ht="15.75" spans="4:4">
-      <c r="D153" s="12"/>
+      <c r="D153" s="4"/>
     </row>
     <row r="154" ht="15.75" spans="4:4">
-      <c r="D154" s="12"/>
+      <c r="D154" s="4"/>
     </row>
     <row r="155" ht="15.75" spans="4:4">
-      <c r="D155" s="12"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="156" ht="15.75" spans="4:4">
-      <c r="D156" s="12"/>
+      <c r="D156" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1940"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="duplicateValues" dxfId="0" priority="1189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="duplicateValues" dxfId="0" priority="1188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="duplicateValues" dxfId="0" priority="1127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="duplicateValues" dxfId="0" priority="662"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="duplicateValues" dxfId="0" priority="661"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="duplicateValues" dxfId="0" priority="602"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="601"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D133">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
-    <cfRule type="expression" dxfId="1" priority="86">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C125&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="85">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C125&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="84">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C135&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="83">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C136&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="82">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C136&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="26">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="25">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="23">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="22">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="21">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="19">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="18">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C136&amp;$H125))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C136&amp;$H125))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C135&amp;$H125))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D136">
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D138">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D139">
-    <cfRule type="expression" dxfId="1" priority="91">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$D83))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="90">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$D83))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="89">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$D83))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="88">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C136&amp;$D83))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="87">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C136&amp;$D83))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="77">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="76">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="75">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="73">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="72">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="71">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="70">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="69">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="68">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="67">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="66">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="65">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$H136))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="64">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$H136))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="62">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="61">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="60">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$H136))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="35">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$H137))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="34">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$H137))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="33">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C141&amp;$E137))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="32">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$H137))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="31">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C141&amp;$E137))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="30">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C140&amp;$E137))</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D140">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
-    <cfRule type="expression" dxfId="1" priority="81">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C146&amp;$D88))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="80">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D88))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="79">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C147&amp;$D88))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="54">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="53">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="52">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="51">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="48">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="47">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="46">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="45">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="43">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="42">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C147&amp;$H142))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="41">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$H142))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="40">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="39">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="38">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C146&amp;$H142))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="37">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C142&amp;$D88))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="36">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C142&amp;$D88))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="expression" dxfId="1" priority="113">
+    <cfRule type="expression" dxfId="0" priority="114">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D89))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="112">
+    <cfRule type="expression" dxfId="0" priority="113">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D89))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="111">
+    <cfRule type="expression" dxfId="0" priority="112">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$D89))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="110">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="109">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="108">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="107">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="106">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="105">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="104">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="103">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="101">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="100">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="99">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="98">
+    <cfRule type="expression" dxfId="0" priority="111">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="110">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="108">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="107">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="106">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="105">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="104">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="102">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="101">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="100">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="99">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$H143))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="97">
+    <cfRule type="expression" dxfId="0" priority="98">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$H143))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="96">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="95">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="94">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="96">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="95">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$H143))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="93">
+    <cfRule type="expression" dxfId="0" priority="94">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C143&amp;$D89))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="92">
+    <cfRule type="expression" dxfId="0" priority="93">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C143&amp;$D89))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147">
-    <cfRule type="expression" dxfId="1" priority="135">
+    <cfRule type="expression" dxfId="0" priority="136">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D90))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="134">
+    <cfRule type="expression" dxfId="0" priority="135">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$D90))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="133">
+    <cfRule type="expression" dxfId="0" priority="134">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C149&amp;$D90))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="132">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="131">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="130">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="129">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="128">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="127">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="126">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="125">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="124">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="123">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="122">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="121">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="120">
+    <cfRule type="expression" dxfId="0" priority="133">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="132">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="131">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="130">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="129">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="128">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="126">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="125">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="124">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="122">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="121">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C149&amp;$H144))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="119">
+    <cfRule type="expression" dxfId="0" priority="120">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$H144))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="118">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="117">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="116">
+    <cfRule type="expression" dxfId="0" priority="119">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="118">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="117">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$H144))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="115">
+    <cfRule type="expression" dxfId="0" priority="116">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C144&amp;$D90))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="114">
+    <cfRule type="expression" dxfId="0" priority="115">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C144&amp;$D90))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="expression" dxfId="1" priority="157">
+    <cfRule type="expression" dxfId="0" priority="158">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$D91))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="156">
+    <cfRule type="expression" dxfId="0" priority="157">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$D91))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="155">
+    <cfRule type="expression" dxfId="0" priority="156">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C150&amp;$D91))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="154">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="153">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="152">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="151">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="150">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="149">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="148">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="147">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="146">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="145">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="144">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="143">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="142">
+    <cfRule type="expression" dxfId="0" priority="155">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="154">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="153">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="152">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="150">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="149">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="148">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="147">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="146">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="144">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="143">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C150&amp;$H145))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="141">
+    <cfRule type="expression" dxfId="0" priority="142">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$H145))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="140">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="139">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="138">
+    <cfRule type="expression" dxfId="0" priority="141">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="140">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="139">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$H145))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="137">
+    <cfRule type="expression" dxfId="0" priority="138">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C145&amp;$D91))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="136">
+    <cfRule type="expression" dxfId="0" priority="137">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C145&amp;$D91))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="expression" dxfId="1" priority="179">
+    <cfRule type="expression" dxfId="0" priority="180">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$D92))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="178">
+    <cfRule type="expression" dxfId="0" priority="179">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$D92))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="177">
+    <cfRule type="expression" dxfId="0" priority="178">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C151&amp;$D92))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="176">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="175">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="174">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="173">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="172">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="171">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="170">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="169">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="168">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="167">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="166">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="165">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="164">
+    <cfRule type="expression" dxfId="0" priority="177">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="176">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="175">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="174">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="173">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="172">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="171">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="170">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="168">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="167">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="166">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="165">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C151&amp;$H146))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="163">
+    <cfRule type="expression" dxfId="0" priority="164">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$H146))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="162">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="161">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="160">
+    <cfRule type="expression" dxfId="0" priority="163">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="162">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="161">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$H146))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="159">
+    <cfRule type="expression" dxfId="0" priority="160">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C146&amp;$D92))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="158">
+    <cfRule type="expression" dxfId="0" priority="159">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C146&amp;$D92))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="expression" dxfId="1" priority="201">
+    <cfRule type="expression" dxfId="0" priority="202">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$D93))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="200">
+    <cfRule type="expression" dxfId="0" priority="201">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$D93))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="199">
+    <cfRule type="expression" dxfId="0" priority="200">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C152&amp;$D93))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="198">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="197">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="196">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="195">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="194">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="193">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="192">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="191">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="190">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="189">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="188">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="187">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="186">
+    <cfRule type="expression" dxfId="0" priority="199">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="198">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="197">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="196">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="195">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="194">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="192">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="191">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="190">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="189">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="188">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="187">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C152&amp;$H147))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="185">
+    <cfRule type="expression" dxfId="0" priority="186">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$H147))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="184">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="183">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="182">
+    <cfRule type="expression" dxfId="0" priority="185">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="184">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="183">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$H147))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="181">
+    <cfRule type="expression" dxfId="0" priority="182">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C147&amp;$D93))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="180">
+    <cfRule type="expression" dxfId="0" priority="181">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D93))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="expression" dxfId="1" priority="223">
+    <cfRule type="expression" dxfId="0" priority="224">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$D94))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="222">
+    <cfRule type="expression" dxfId="0" priority="223">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D94))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="221">
+    <cfRule type="expression" dxfId="0" priority="222">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$D94))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="220">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="219">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="218">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="217">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="216">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="215">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="214">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="213">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="212">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="211">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="210">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="209">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="208">
+    <cfRule type="expression" dxfId="0" priority="221">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="220">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="219">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="218">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="216">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="215">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="214">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="213">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="212">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="211">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="210">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="209">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$H148))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="207">
+    <cfRule type="expression" dxfId="0" priority="208">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$H148))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="206">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="205">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="204">
+    <cfRule type="expression" dxfId="0" priority="207">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="206">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="205">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$H148))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="203">
+    <cfRule type="expression" dxfId="0" priority="204">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$D94))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="202">
+    <cfRule type="expression" dxfId="0" priority="203">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D94))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152">
-    <cfRule type="expression" dxfId="1" priority="245">
+    <cfRule type="expression" dxfId="0" priority="246">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D95))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="244">
+    <cfRule type="expression" dxfId="0" priority="245">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$D95))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="243">
+    <cfRule type="expression" dxfId="0" priority="244">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C154&amp;$D95))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="242">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="241">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="240">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="239">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="238">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="237">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="236">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="235">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="234">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="233">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="232">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="231">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="230">
+    <cfRule type="expression" dxfId="0" priority="243">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="242">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="241">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="240">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="239">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="238">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="237">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="236">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="234">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="233">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="232">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="231">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C154&amp;$H149))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="229">
+    <cfRule type="expression" dxfId="0" priority="230">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$H149))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="228">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="227">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="226">
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="228">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="227">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$H149))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="225">
+    <cfRule type="expression" dxfId="0" priority="226">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C149&amp;$D95))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="224">
+    <cfRule type="expression" dxfId="0" priority="225">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$D95))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="expression" dxfId="1" priority="267">
+    <cfRule type="expression" dxfId="0" priority="268">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$D96))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="266">
+    <cfRule type="expression" dxfId="0" priority="267">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$D96))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="265">
+    <cfRule type="expression" dxfId="0" priority="266">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C155&amp;$D96))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="264">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="263">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="262">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="261">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="260">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="259">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="258">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="257">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="256">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="255">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="254">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="253">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="252">
+    <cfRule type="expression" dxfId="0" priority="265">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="264">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="263">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="262">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="261">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="260">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="259">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="258">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="257">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="256">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="255">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="254">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="253">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C155&amp;$H150))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="251">
+    <cfRule type="expression" dxfId="0" priority="252">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$H150))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="250">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="249">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="248">
+    <cfRule type="expression" dxfId="0" priority="251">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="250">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="249">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C154&amp;$H150))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="247">
+    <cfRule type="expression" dxfId="0" priority="248">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C150&amp;$D96))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="246">
+    <cfRule type="expression" dxfId="0" priority="247">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C150&amp;$D96))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="expression" dxfId="1" priority="289">
+    <cfRule type="expression" dxfId="0" priority="290">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$D97))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="288">
+    <cfRule type="expression" dxfId="0" priority="289">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$D97))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="287">
+    <cfRule type="expression" dxfId="0" priority="288">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C156&amp;$D97))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="286">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="285">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="284">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="283">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="282">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="281">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="280">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="279">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="278">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="277">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="276">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="275">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="274">
+    <cfRule type="expression" dxfId="0" priority="287">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="286">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="285">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="284">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="283">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="282">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="281">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="280">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="279">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="278">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="277">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="276">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="275">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C156&amp;$H151))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="273">
+    <cfRule type="expression" dxfId="0" priority="274">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$H151))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="272">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="271">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="270">
+    <cfRule type="expression" dxfId="0" priority="273">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="272">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="271">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C155&amp;$H151))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="269">
+    <cfRule type="expression" dxfId="0" priority="270">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C151&amp;$D97))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="268">
+    <cfRule type="expression" dxfId="0" priority="269">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C151&amp;$D97))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="1" priority="311">
+    <cfRule type="expression" dxfId="0" priority="312">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$D98))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="310">
+    <cfRule type="expression" dxfId="0" priority="311">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$D98))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="309">
+    <cfRule type="expression" dxfId="0" priority="310">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C157&amp;$D98))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="308">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="307">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="306">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="305">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="304">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="303">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="302">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="301">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="300">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="299">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="298">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="297">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="296">
+    <cfRule type="expression" dxfId="0" priority="309">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="308">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="307">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="306">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="305">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="304">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="303">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="302">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="301">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="300">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="299">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="298">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="297">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C157&amp;$H152))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="295">
+    <cfRule type="expression" dxfId="0" priority="296">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$H152))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="294">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="293">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="292">
+    <cfRule type="expression" dxfId="0" priority="295">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="294">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="293">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C156&amp;$H152))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="291">
+    <cfRule type="expression" dxfId="0" priority="292">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C152&amp;$D98))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="290">
+    <cfRule type="expression" dxfId="0" priority="291">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C152&amp;$D98))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156">
-    <cfRule type="expression" dxfId="1" priority="2032">
+    <cfRule type="expression" dxfId="0" priority="2033">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$D99))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2031">
+    <cfRule type="expression" dxfId="0" priority="2032">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$D99))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2030">
+    <cfRule type="expression" dxfId="0" priority="2031">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$D99))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1997">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1996">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1995">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1994">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1993">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1992">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1991">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1990">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1989">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1988">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1987">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1986">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1985">
+    <cfRule type="expression" dxfId="0" priority="1998">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1997">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1996">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1995">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1994">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1993">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1992">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1991">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1990">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1989">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1988">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1987">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1986">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$H153))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1984">
+    <cfRule type="expression" dxfId="0" priority="1985">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$H153))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1983">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1982">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1981">
+    <cfRule type="expression" dxfId="0" priority="1984">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1983">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1982">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$H153))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1980">
+    <cfRule type="expression" dxfId="0" priority="1981">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$D99))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1979">
+    <cfRule type="expression" dxfId="0" priority="1980">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D99))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D16">
-    <cfRule type="duplicateValues" dxfId="0" priority="1842"/>
+  <conditionalFormatting sqref="D2:D145">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1718"/>
+  <conditionalFormatting sqref="D146:D156">
+    <cfRule type="duplicateValues" dxfId="1" priority="1946"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1659"/>
+  <conditionalFormatting sqref="D146:D156">
+    <cfRule type="duplicateValues" dxfId="1" priority="2029"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2014"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1572"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D51">
-    <cfRule type="duplicateValues" dxfId="0" priority="1361"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D66">
-    <cfRule type="duplicateValues" dxfId="0" priority="1128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:D93">
-    <cfRule type="duplicateValues" dxfId="0" priority="876"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91:D93">
-    <cfRule type="duplicateValues" dxfId="0" priority="930"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D112:D132">
-    <cfRule type="duplicateValues" dxfId="0" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D126:D156">
-    <cfRule type="duplicateValues" dxfId="0" priority="2028"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2013"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D133:D139">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D133:D137">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D133:D138">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D141:D156">
-    <cfRule type="duplicateValues" dxfId="0" priority="2008"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4 D6:D11 D108:D156">
-    <cfRule type="duplicateValues" dxfId="0" priority="1945"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D63 D65:D66">
-    <cfRule type="duplicateValues" dxfId="0" priority="1190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94:D105 D107:D111">
-    <cfRule type="duplicateValues" dxfId="0" priority="683"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94:D105 D107:D111">
-    <cfRule type="duplicateValues" dxfId="0" priority="604"/>
+  <conditionalFormatting sqref="D146:D156">
+    <cfRule type="duplicateValues" dxfId="1" priority="2009"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Names</t>
   </si>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>AFFAN QAMRUDDIN GAZI_MarkSheet_ency.pdf</t>
+  </si>
+  <si>
+    <t>ABUZAR ASHRUFALI KHANMarkSheetency.pdf</t>
+  </si>
+  <si>
+    <t>ABUZAR ASHRUFALI KHANMarkSheetencypdf</t>
+  </si>
+  <si>
+    <t>ABUZAR ASHRUFALI KHANMarkSheetency</t>
+  </si>
+  <si>
+    <t>ABUZAR ASHRUFALI KHAN MarkSheetency</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1467,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2334,16 +2346,28 @@
       </c>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" ht="15.75" spans="4:4">
+    <row r="146" ht="15.75" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" ht="15.75" spans="4:4">
+    <row r="147" ht="15.75" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" ht="15.75" spans="4:4">
+    <row r="148" ht="15.75" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" ht="15.75" spans="4:4">
+    <row r="149" ht="15.75" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" ht="15.75" spans="4:4">
@@ -3121,12 +3145,8 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D156">
     <cfRule type="duplicateValues" dxfId="1" priority="1946"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146:D156">
     <cfRule type="duplicateValues" dxfId="1" priority="2029"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2014"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146:D156">
     <cfRule type="duplicateValues" dxfId="1" priority="2009"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarfaraz\maktab\Darul-Huda\git_repo\7-MONTH-JAIZA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F56089-96F4-435B-BD26-AAB5F39AEE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5740C98-C8BF-4721-AFCB-4D73E1C5837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18" yWindow="12" windowWidth="23022" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Names</t>
   </si>
   <si>
-    <t>ABUZAR ASHRUFALI KHAN.pdf</t>
+    <t>ABUZAR ASHRUFALI KHAN</t>
   </si>
 </sst>
 </file>
@@ -122,84 +122,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <b/>
@@ -957,7 +885,7 @@
   <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1443,146 +1371,128 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D145">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="expression" dxfId="45" priority="111">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="112">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$D89))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="113">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D89))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="114">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D89))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="109">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="110">
+    <cfRule type="expression" dxfId="39" priority="111">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D155">
-    <cfRule type="expression" dxfId="39" priority="93">
+    <cfRule type="expression" dxfId="38" priority="93">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C143&amp;$D89))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="94">
+    <cfRule type="expression" dxfId="37" priority="94">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C143&amp;$D89))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="95">
+    <cfRule type="expression" dxfId="36" priority="95">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$H143))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="96">
+    <cfRule type="expression" dxfId="35" priority="96">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="97">
+    <cfRule type="expression" dxfId="34" priority="97">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="98">
+    <cfRule type="expression" dxfId="33" priority="98">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$H143))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="99">
+    <cfRule type="expression" dxfId="32" priority="99">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$H143))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="100">
+    <cfRule type="expression" dxfId="31" priority="100">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="104">
+    <cfRule type="expression" dxfId="30" priority="104">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="106">
+    <cfRule type="expression" dxfId="29" priority="106">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="107">
+    <cfRule type="expression" dxfId="28" priority="107">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="108">
+    <cfRule type="expression" dxfId="27" priority="108">
       <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="109">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="110">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="112">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C148&amp;$D89))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="113">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D89))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="114">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C147&amp;$D89))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D156">
-    <cfRule type="duplicateValues" dxfId="27" priority="1946"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="2009"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="2014"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2029"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2014"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2009"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1946"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2029"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147:D155">
-    <cfRule type="expression" dxfId="23" priority="133">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="134">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C149&amp;$D90))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="135">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C149&amp;$D90))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="136">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C148&amp;$D90))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="131">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="132">
+    <cfRule type="expression" dxfId="17" priority="133">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156">
-    <cfRule type="expression" dxfId="17" priority="1982">
+    <cfRule type="expression" dxfId="16" priority="1980">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="1981">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="1983">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="1984">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="1985">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$H153))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="1986">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$H153))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="1987">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="1991">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="1993">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="1995">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1996">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1997">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1994">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1982">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$H153))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="1983">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1984">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1985">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$H153))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1986">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$H153))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="1987">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="1991">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="1993">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="1994">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="1995">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1996">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1997">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1998">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;#REF!&amp;#REF!))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2033">
+    <cfRule type="expression" dxfId="2" priority="2031">
+      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2032">
+      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$D99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2033">
       <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C157&amp;$D99))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1980">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C153&amp;$D99))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1981">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C153&amp;$D99))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2031">
-      <formula>IF(ISBLANK($C$1),o,SEARCH($C$1,#REF!&amp;$C158&amp;$D99))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2032">
-      <formula>IF(ISBLANK($C$2),o,SEARCH($C$2,#REF!&amp;$C158&amp;$D99))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13620" windowHeight="7275"/>
+    <workbookView windowWidth="19635" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
     <t>JUNED AYYUB SHAIKH RESULT</t>
   </si>
   <si>
-    <t>ABDULLAH MEHMOOD HAMDULE  RESULT</t>
+    <t>ABDULLAH MEHMOOD HAMDULE RESULT</t>
   </si>
   <si>
     <t>TAQDIS MOHSIN SHAIKH RESULT</t>
@@ -1234,7 +1234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,6 +1258,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1612,8 +1615,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2608,7 +2611,7 @@
       <c r="D141" s="4"/>
     </row>
     <row r="142" ht="15.75" spans="1:4">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="8"/>
@@ -2640,70 +2643,70 @@
         <v>144</v>
       </c>
       <c r="C146" s="8"/>
-      <c r="D146" s="10"/>
+      <c r="D146" s="11"/>
     </row>
     <row r="147" ht="15.75" spans="1:4">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="8"/>
-      <c r="D147" s="10"/>
+      <c r="D147" s="11"/>
     </row>
     <row r="148" ht="15.75" spans="1:4">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="8"/>
-      <c r="D148" s="10"/>
+      <c r="D148" s="11"/>
     </row>
     <row r="149" ht="15.75" spans="1:4">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="8"/>
-      <c r="D149" s="10"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" ht="15.75" spans="1:4">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="8"/>
-      <c r="D150" s="10"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" ht="15.75" spans="1:4">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="8"/>
-      <c r="D151" s="10"/>
+      <c r="D151" s="11"/>
     </row>
     <row r="152" ht="15.75" spans="1:4">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="8"/>
-      <c r="D152" s="10"/>
+      <c r="D152" s="11"/>
     </row>
     <row r="153" ht="15.75" spans="1:4">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="8"/>
-      <c r="D153" s="10"/>
+      <c r="D153" s="11"/>
     </row>
     <row r="154" ht="15.75" spans="1:4">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="8"/>
-      <c r="D154" s="10"/>
+      <c r="D154" s="11"/>
     </row>
     <row r="155" ht="15.75" spans="1:4">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="11"/>
-      <c r="D155" s="10"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="11"/>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="2" t="s">
@@ -2759,16 +2762,16 @@
       <c r="A166" s="2"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="12"/>
+      <c r="A167" s="13"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="12"/>
+      <c r="A168" s="13"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="12"/>
+      <c r="A169" s="13"/>
     </row>
     <row r="170" ht="15.75" spans="1:1">
-      <c r="A170" s="13"/>
+      <c r="A170" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
